--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2490241.570101186</v>
+        <v>2490241.570101218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800563</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800563</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177837</v>
+        <v>3940022.79076317</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177837</v>
+        <v>3940022.79076317</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.0370798</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>408.192915058951</v>
       </c>
       <c r="T3" t="n">
-        <v>391.1574709203184</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U3" t="n">
         <v>400.0036144771679</v>
@@ -809,7 +809,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
-        <v>419.8627394453875</v>
+        <v>418.3290394878145</v>
       </c>
       <c r="Y3" t="n">
         <v>399.3913927661343</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
@@ -1034,7 +1034,7 @@
         <v>408.192915058951</v>
       </c>
       <c r="T6" t="n">
-        <v>391.1574709203184</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U6" t="n">
         <v>400.0036144771679</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453140457</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1432,7 +1432,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1551,40 +1551,40 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963202523</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1809,31 +1809,31 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767758302</v>
       </c>
       <c r="T17" t="n">
         <v>560.964918411981</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963202523</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9376868977026</v>
+        <v>346.4039869401291</v>
       </c>
       <c r="E21" t="n">
         <v>342.6720972219126</v>
@@ -2216,7 +2216,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2277,7 +2277,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.3568653036801</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.4706963202523</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>165.2127885434264</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2620,7 +2620,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V26" t="n">
-        <v>629.8510241668239</v>
+        <v>628.46267987435</v>
       </c>
       <c r="W26" t="n">
         <v>638.3734759809475</v>
@@ -2690,7 +2690,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>406.6592151013773</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
         <v>449.4745782429939</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963206017</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013773</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2973,40 +2973,40 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X32" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891681939</v>
       </c>
       <c r="Y32" t="n">
         <v>511.3174326828064</v>
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>406.6592151013773</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="T34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E35" t="n">
         <v>404.3632896068686</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963211577</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453142416</v>
       </c>
       <c r="F38" t="n">
         <v>404.8896287080119</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>57.56516074743379</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767760274</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3839,7 +3839,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H42" t="n">
         <v>301.8178796392513</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W44" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879641</v>
       </c>
       <c r="X44" t="n">
         <v>592.2818334606677</v>
@@ -4076,7 +4076,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H45" t="n">
         <v>301.8178796392513</v>
@@ -4127,7 +4127,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>419.8627394453875</v>
+        <v>418.3290394878145</v>
       </c>
       <c r="Y45" t="n">
         <v>399.3913927661343</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768742</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>3159.388586083262</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3641.567785596765</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4206.610849469437</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O2" t="n">
-        <v>5116.765732410181</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P2" t="n">
-        <v>5952.633060507595</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4445,16 +4445,16 @@
         <v>5157.673230555786</v>
       </c>
       <c r="T3" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U3" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V3" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W3" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X3" t="n">
         <v>3078.978649804046</v>
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2053.555015773446</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3797.935015773446</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279159621</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4628,19 +4628,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C6" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D6" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E6" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F6" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
         <v>555.8565327448407</v>
@@ -4682,22 +4682,22 @@
         <v>5157.673230555786</v>
       </c>
       <c r="T6" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U6" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V6" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W6" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X6" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y6" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="7">
@@ -4734,22 +4734,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
         <v>351.2038120028187</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4822,40 +4822,40 @@
         <v>2814.780508913348</v>
       </c>
       <c r="N8" t="n">
-        <v>4465.52036104992</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5124.203572786078</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>5960.070900883491</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>7026.584963222591</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="9">
@@ -4971,16 +4971,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O10" t="n">
         <v>457.4949902104935</v>
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546288</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048314</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351496</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044379</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069938</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960388</v>
       </c>
       <c r="H11" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756553</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043494</v>
       </c>
       <c r="L11" t="n">
-        <v>2631.383042915614</v>
+        <v>2257.013012360077</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>2739.19221187358</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>3304.235275746252</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>4893.440008753141</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197937</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183337</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464164</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543076</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819012</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908964</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665865</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430707</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939723</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500364</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448439</v>
       </c>
       <c r="H12" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654691</v>
       </c>
       <c r="I12" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149249</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437432</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117179</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368539</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249719</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S12" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432125</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070619</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043176</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021612</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="H13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I13" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967167</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546288</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048314</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351496</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071831</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361344454</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003234904</v>
       </c>
       <c r="H14" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>696.7804792930189</v>
       </c>
       <c r="K14" t="n">
-        <v>1415.008586083262</v>
+        <v>1436.423622860858</v>
       </c>
       <c r="L14" t="n">
-        <v>2332.601309399844</v>
+        <v>2354.016346177441</v>
       </c>
       <c r="M14" t="n">
-        <v>3077.533789260046</v>
+        <v>2836.195545690944</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>3401.238609563616</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563646</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937661059</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183337</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464164</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543076</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819012</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908964</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665865</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430707</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939723</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500364</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448439</v>
       </c>
       <c r="H15" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654691</v>
       </c>
       <c r="I15" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149249</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437432</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117179</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368539</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249719</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432125</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070619</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043176</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021612</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="C16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="D16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="H16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967167</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="O16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="P16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="R16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="S16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="W16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="X16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518836</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020863</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324045</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044379</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069938</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960388</v>
       </c>
       <c r="H17" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756553</v>
       </c>
       <c r="K17" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043494</v>
       </c>
       <c r="L17" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360077</v>
       </c>
       <c r="M17" t="n">
-        <v>3864.448844008177</v>
+        <v>2739.19221187358</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396619</v>
+        <v>4389.932064010152</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100524</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197937</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155886</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.115762436713</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515625</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.59813479156</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881512</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.511963638413</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403255</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939723</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500364</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448439</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654691</v>
       </c>
       <c r="I18" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149249</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437432</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117179</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368539</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249719</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432125</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070619</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043176</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021612</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967167</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>155.5035375626307</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000032</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546288</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048314</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351496</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071831</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361344454</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003234904</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756553</v>
       </c>
       <c r="K20" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043494</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360077</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>3194.417427023208</v>
       </c>
       <c r="N20" t="n">
-        <v>4465.52036104992</v>
+        <v>4845.15727915978</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100524</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197937</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183337</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464164</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543076</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819012</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908964</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665865</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430707</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.56284235957</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050964</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939723</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500364</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448439</v>
       </c>
       <c r="H21" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654691</v>
       </c>
       <c r="I21" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149249</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437432</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117179</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368539</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249719</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555789</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.015482194282</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.97142716684</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539042</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145275</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927712</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668991</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967167</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="L22" t="n">
-        <v>275.6639043471516</v>
+        <v>275.6639043471548</v>
       </c>
       <c r="M22" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754451</v>
       </c>
       <c r="N22" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754451</v>
       </c>
       <c r="O22" t="n">
-        <v>275.6639043471516</v>
+        <v>166.9289267754451</v>
       </c>
       <c r="P22" t="n">
-        <v>275.6639043471516</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="R22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="S22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546288</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048314</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351496</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071831</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361344454</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003234904</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.77883469595</v>
       </c>
       <c r="K23" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263789</v>
       </c>
       <c r="L23" t="n">
-        <v>3042.307675747712</v>
+        <v>2683.014701580372</v>
       </c>
       <c r="M23" t="n">
-        <v>3524.486875261216</v>
+        <v>3165.193901093875</v>
       </c>
       <c r="N23" t="n">
-        <v>4089.529939133888</v>
+        <v>3730.236964966547</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100367</v>
+        <v>5474.616964966577</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434934</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362237156</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000159</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183337</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464164</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922543076</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766819012</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908964</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665865</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430707</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927301</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939723</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402437</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500364</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448439</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654691</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149249</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437432</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117179</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368539</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249719</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372911</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432125</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070619</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043176</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021612</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545327</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967167</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893228</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>293.2980670266953</v>
       </c>
       <c r="T25" t="n">
-        <v>140.96</v>
+        <v>293.2980670266953</v>
       </c>
       <c r="U25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000032</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518844</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.14699002087</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324052</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044387</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041070009</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>492.332768296046</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695958</v>
       </c>
       <c r="K26" t="n">
-        <v>1841.010275303557</v>
+        <v>1765.421978263797</v>
       </c>
       <c r="L26" t="n">
-        <v>2758.60299862014</v>
+        <v>2683.01470158038</v>
       </c>
       <c r="M26" t="n">
-        <v>4280.114215286949</v>
+        <v>3165.193901093882</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279159621</v>
+        <v>3730.236964966554</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100365</v>
+        <v>5145.618609564006</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937661419</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>7048.000000000519</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000519</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183697</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464524</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543436</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791568</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188152</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638421</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403263</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235914</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927308</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.91243893973</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500435</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448511</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546982</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514932</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213089</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374327</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117186</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.06020421532</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182058</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368545</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249725</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372918</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432133</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070626</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043184</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415385</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021619</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804056</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545334</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="H28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996724</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546648</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048675</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351856</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859072191</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361348055</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003238506</v>
       </c>
       <c r="H29" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>669.133443004765</v>
       </c>
       <c r="K29" t="n">
-        <v>1713.790319599031</v>
+        <v>1408.776586572604</v>
       </c>
       <c r="L29" t="n">
-        <v>2631.383042915614</v>
+        <v>2326.369309889187</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>2808.54850940269</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>3373.591573275362</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>4283.746456216106</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000519</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183697</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464524</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543436</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819372</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073909324</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595666225</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340431067</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235914</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927308</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.91243893973</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500435</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448511</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546982</v>
       </c>
       <c r="I30" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514932</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213089</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374327</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117186</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.06020421532</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182058</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368545</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249725</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372918</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432133</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070626</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043184</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415385</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021619</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804056</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545334</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="C31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="D31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="F31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="G31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="I31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996724</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="Y31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000104</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518844</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.14699002087</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324052</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044387</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041070009</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003233322</v>
+        <v>492.332768296046</v>
       </c>
       <c r="H32" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397808</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>675.365442515433</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.714952431141</v>
       </c>
       <c r="L32" t="n">
-        <v>3159.388586083262</v>
+        <v>3071.357825474084</v>
       </c>
       <c r="M32" t="n">
-        <v>3641.567785596765</v>
+        <v>3553.537024987587</v>
       </c>
       <c r="N32" t="n">
-        <v>4206.610849469437</v>
+        <v>4118.580088860259</v>
       </c>
       <c r="O32" t="n">
-        <v>5116.765732410181</v>
+        <v>5028.734971801003</v>
       </c>
       <c r="P32" t="n">
-        <v>6591.17949019778</v>
+        <v>5864.602299898416</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048</v>
+        <v>6931.116362237516</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000519</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183697</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464524</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922543436</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766819372</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073909324</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.511963638421</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403263</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235914</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927308</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.91243893973</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500435</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448511</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546982</v>
       </c>
       <c r="I33" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514932</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213089</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374327</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117186</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.06020421532</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182058</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368545</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249725</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372918</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432133</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070626</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043184</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415385</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021619</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804056</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545334</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="H34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="I34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967136</v>
+        <v>290.446609996724</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.84160458933</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670267025</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>293.2980670267025</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000104</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347547207</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622049233</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626352415</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.81285907275</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>892.833436135364</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.930400324409</v>
       </c>
       <c r="H35" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397777</v>
       </c>
       <c r="J35" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154298</v>
       </c>
       <c r="K35" t="n">
-        <v>1794.645504192963</v>
+        <v>1415.008586083269</v>
       </c>
       <c r="L35" t="n">
-        <v>2712.238227509546</v>
+        <v>3071.357825474644</v>
       </c>
       <c r="M35" t="n">
-        <v>3194.417427023049</v>
+        <v>3553.537024988146</v>
       </c>
       <c r="N35" t="n">
-        <v>4845.157279159621</v>
+        <v>4118.580088860818</v>
       </c>
       <c r="O35" t="n">
-        <v>5755.312162100365</v>
+        <v>5028.734971801562</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299898976</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>6931.116362238075</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000001079</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625184256</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394465083</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543995</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576681993</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073909882</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595666783</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340431625</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235911</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927305</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939727</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402441</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500405</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744848</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546951</v>
       </c>
       <c r="I36" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514929</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213086</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374324</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117183</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215318</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182056</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249723</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372916</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.22242243213</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070623</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043181</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415383</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021616</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804053</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545332</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967208</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754649</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048516</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351698</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044383</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069979</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960428</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397777</v>
       </c>
       <c r="J38" t="n">
-        <v>599.7771454756521</v>
+        <v>704.4155922416362</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043491</v>
+        <v>2153.765102157344</v>
       </c>
       <c r="L38" t="n">
-        <v>3083.800289043491</v>
+        <v>3071.357825473927</v>
       </c>
       <c r="M38" t="n">
-        <v>3565.979488556994</v>
+        <v>3553.53702498743</v>
       </c>
       <c r="N38" t="n">
-        <v>4845.157279159621</v>
+        <v>4118.580088860102</v>
       </c>
       <c r="O38" t="n">
-        <v>5755.312162100365</v>
+        <v>5028.734971800845</v>
       </c>
       <c r="P38" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299898259</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048</v>
+        <v>6931.116362237359</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000362</v>
       </c>
       <c r="S38" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183539</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464367</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543278</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819214</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073909165</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595666067</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430909</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235911</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927305</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939727</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402441</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500405</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744848</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546951</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514929</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213086</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374324</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117183</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215318</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182056</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249723</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372916</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.22242243213</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070623</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043181</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415383</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021616</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804053</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545332</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967208</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>199.1066270176171</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518841</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020867</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324049</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044383</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069979</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960428</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J41" t="n">
-        <v>599.7771454756521</v>
+        <v>599.7771454756594</v>
       </c>
       <c r="K41" t="n">
-        <v>2049.12665539136</v>
+        <v>2049.126655391367</v>
       </c>
       <c r="L41" t="n">
-        <v>2966.719378707943</v>
+        <v>2966.71937870795</v>
       </c>
       <c r="M41" t="n">
-        <v>3448.898578221445</v>
+        <v>3448.898578221453</v>
       </c>
       <c r="N41" t="n">
-        <v>4013.941642094117</v>
+        <v>4013.941642094125</v>
       </c>
       <c r="O41" t="n">
-        <v>4924.096525034862</v>
+        <v>4924.096525034869</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937661262</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048</v>
+        <v>7048.000000000362</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000362</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.74699315589</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436717</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515629</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791564</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881516</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638417</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403259</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235911</v>
       </c>
       <c r="C42" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927305</v>
       </c>
       <c r="D42" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.912438939727</v>
       </c>
       <c r="E42" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402441</v>
       </c>
       <c r="F42" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500405</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744848</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546951</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514929</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213086</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374324</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117183</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215318</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182056</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249723</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249252</v>
       </c>
       <c r="S42" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.22242243213</v>
       </c>
       <c r="T42" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070623</v>
       </c>
       <c r="U42" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043181</v>
       </c>
       <c r="V42" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415383</v>
       </c>
       <c r="W42" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021616</v>
       </c>
       <c r="X42" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804053</v>
       </c>
       <c r="Y42" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545332</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967208</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518841</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020867</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324049</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044383</v>
       </c>
       <c r="F44" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069979</v>
       </c>
       <c r="G44" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960428</v>
       </c>
       <c r="H44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756594</v>
       </c>
       <c r="K44" t="n">
-        <v>2550.716641651425</v>
+        <v>2049.126655391367</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>2966.71937870795</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>3448.898578221453</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4013.941642094125</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881516</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638417</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403259</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235911</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927305</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.912438939727</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402441</v>
       </c>
       <c r="F45" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500405</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744848</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546951</v>
       </c>
       <c r="I45" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514929</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213086</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374324</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117183</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215318</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182056</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249723</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372916</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555793</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194287</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4356.971427166844</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3938.273783539046</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145273</v>
+        <v>3501.53323514528</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804053</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545332</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="C46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="D46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="E46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="F46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="G46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="H46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="I46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967208</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893268</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471588</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754491</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="W46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="X46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
       <c r="Y46" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000073</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7990,25 +7990,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>459.8234496459322</v>
       </c>
       <c r="Q2" t="n">
-        <v>526.9321130577583</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>644.9963936264489</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>835.1386633165828</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>341.7591690772424</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8470,19 +8470,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>265.407353885553</v>
+        <v>842.6516333932466</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>198.1081860458826</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -8701,25 +8701,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>301.799730824009</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>685.9089394607527</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>97.98316547208447</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8941,22 +8941,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>265.4073538855533</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>842.6516333932184</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>301.7997308240106</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>459.8234496460886</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>459.8234496460885</v>
       </c>
       <c r="N20" t="n">
         <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
-        <v>265.407353885553</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,16 +9658,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>763.2599394199344</v>
+        <v>842.6516333932184</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>165.4662215868115</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>430.3047365861567</v>
@@ -9889,19 +9889,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1049.830320356875</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>510.3300622795027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>176.4768357656695</v>
@@ -10117,16 +10117,16 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>70.05686619101266</v>
       </c>
       <c r="K29" t="n">
-        <v>378.1515460156963</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357661923</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>835.138663316583</v>
+        <v>29.34358558218264</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>644.9963936264498</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>29.51871305977465</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>746.2187031058502</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>29.34358558202672</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>835.1386633165826</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>721.3482088181361</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10849,10 +10849,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,10 +11083,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>839.6117546116188</v>
+        <v>223.7596813424034</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>176.4768357656695</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>214.8909222650855</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11317,16 +11317,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>223.7596813420403</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.388344292822921</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23472,7 +23472,7 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S13" t="n">
-        <v>316.45975839138</v>
+        <v>151.2469698479536</v>
       </c>
       <c r="T13" t="n">
         <v>198.7676812603561</v>
@@ -23512,13 +23512,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292822865</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O16" t="n">
-        <v>102.8454312732934</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P16" t="n">
         <v>368.8061924102448</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.388344292824343</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C19" t="n">
-        <v>107.5124581046183</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
         <v>285.5362180555555</v>
@@ -23952,10 +23952,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292822865</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.533699957573504</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24165,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>168.0209277307011</v>
@@ -24174,10 +24174,10 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
-        <v>368.8061924102448</v>
+        <v>343.0969549025573</v>
       </c>
       <c r="Q22" t="n">
-        <v>371.871401121918</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R22" t="n">
         <v>608.1413738827905</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292822865</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S25" t="n">
-        <v>151.2469698479536</v>
+        <v>302.0616562043788</v>
       </c>
       <c r="T25" t="n">
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.388344292473903</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>1.533699957573617</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q28" t="n">
-        <v>505.228266425598</v>
+        <v>340.0154778821716</v>
       </c>
       <c r="R28" t="n">
         <v>608.1413738827905</v>
@@ -24666,7 +24666,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24685,7 +24685,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24703,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.388344292473391</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957573617</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24894,7 +24894,7 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S31" t="n">
-        <v>316.45975839138</v>
+        <v>151.2469698479536</v>
       </c>
       <c r="T31" t="n">
         <v>198.7676812603561</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24988,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.388344292473676</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>1.533699957573617</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S34" t="n">
-        <v>316.45975839138</v>
+        <v>302.0616562043788</v>
       </c>
       <c r="T34" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344291917463</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,13 +25380,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528331</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.6567084507444</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="38">
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292627096</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25587,10 +25587,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>110.4557669832673</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.388344292627153</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>33.9575216727898</v>
+        <v>33.95752167278982</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.388344292983447</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25964,58 +25964,58 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>1.533699957572992</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26049,7 +26049,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230137</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>158.5641654399917</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611365</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254725</v>
+        <v>2720233.373779674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794898083</v>
+        <v>4074063.692137214</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458965</v>
+        <v>5286709.860492395</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019847</v>
+        <v>6499356.028847575</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358073</v>
+        <v>7712002.197202747</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314161</v>
+        <v>8924648.365557916</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.0264270249</v>
+        <v>10137294.53391309</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226337</v>
+        <v>11349940.70226829</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182425</v>
+        <v>12562586.87062349</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138513</v>
+        <v>13775233.03897868</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094601</v>
+        <v>14987879.20733394</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050691</v>
+        <v>16200525.37568915</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006781</v>
+        <v>17413171.54404436</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962873</v>
+        <v>18625817.71239953</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245016</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323127</v>
+        <v>761428.9894323205</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323207</v>
       </c>
       <c r="G2" t="n">
+        <v>761428.9894323207</v>
+      </c>
+      <c r="H2" t="n">
+        <v>761428.9894323209</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323206</v>
+      </c>
+      <c r="J2" t="n">
+        <v>761428.9894323391</v>
+      </c>
+      <c r="K2" t="n">
+        <v>761428.9894323393</v>
+      </c>
+      <c r="L2" t="n">
+        <v>761428.9894323393</v>
+      </c>
+      <c r="M2" t="n">
+        <v>761428.9894323692</v>
+      </c>
+      <c r="N2" t="n">
+        <v>761428.9894323312</v>
+      </c>
+      <c r="O2" t="n">
+        <v>761428.9894323316</v>
+      </c>
+      <c r="P2" t="n">
         <v>761428.9894323125</v>
-      </c>
-      <c r="H2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="I2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="K2" t="n">
-        <v>761428.9894323122</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323121</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323123</v>
-      </c>
-      <c r="O2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="P2" t="n">
-        <v>761428.9894323123</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.384614733979106e-08</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620224.0000000318</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.8038216352</v>
+        <v>89075.80382163513</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715407</v>
+        <v>88773.85276715399</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722107</v>
+        <v>88471.49209722099</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850366</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850366</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850366</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850366</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850303</v>
+        <v>13783.46259850366</v>
       </c>
       <c r="J4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850512</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850512</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850512</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850745</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850448</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850448</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850299</v>
       </c>
     </row>
     <row r="5">
@@ -26484,40 +26484,40 @@
         <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000024</v>
       </c>
       <c r="F5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000024</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000024</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000024</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000024</v>
       </c>
       <c r="J5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000079</v>
       </c>
       <c r="K5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000079</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000079</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000055</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000055</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000055</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000055</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1456302.301597133</v>
       </c>
       <c r="C6" t="n">
-        <v>588698.6494573476</v>
+        <v>588698.6494573477</v>
       </c>
       <c r="D6" t="n">
         <v>589001.0101272805</v>
       </c>
       <c r="E6" t="n">
-        <v>608666.1268338097</v>
+        <v>608666.1268338006</v>
       </c>
       <c r="F6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338147</v>
       </c>
       <c r="G6" t="n">
-        <v>608666.1268338095</v>
+        <v>608666.1268338147</v>
       </c>
       <c r="H6" t="n">
-        <v>608666.1268338094</v>
+        <v>608666.1268338149</v>
       </c>
       <c r="I6" t="n">
-        <v>608666.1268338095</v>
+        <v>608666.1268338145</v>
       </c>
       <c r="J6" t="n">
-        <v>-11557.87316619069</v>
+        <v>-11557.8731662057</v>
       </c>
       <c r="K6" t="n">
-        <v>608666.1268338092</v>
+        <v>608666.1268338263</v>
       </c>
       <c r="L6" t="n">
-        <v>608666.1268338095</v>
+        <v>608666.1268338263</v>
       </c>
       <c r="M6" t="n">
-        <v>608666.1268338091</v>
+        <v>608666.1268338563</v>
       </c>
       <c r="N6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338212</v>
       </c>
       <c r="O6" t="n">
-        <v>608666.1268338094</v>
+        <v>608666.1268338216</v>
       </c>
       <c r="P6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338041</v>
       </c>
     </row>
   </sheetData>
@@ -26928,40 +26928,40 @@
         <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1762</v>
+        <v>1762.00000000004</v>
       </c>
       <c r="F4" t="n">
-        <v>1762</v>
+        <v>1762.00000000004</v>
       </c>
       <c r="G4" t="n">
-        <v>1762</v>
+        <v>1762.00000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>1762</v>
+        <v>1762.00000000004</v>
       </c>
       <c r="I4" t="n">
-        <v>1762</v>
+        <v>1762.00000000004</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.00000000013</v>
       </c>
       <c r="K4" t="n">
-        <v>1762</v>
+        <v>1762.00000000013</v>
       </c>
       <c r="L4" t="n">
-        <v>1762</v>
+        <v>1762.00000000013</v>
       </c>
       <c r="M4" t="n">
-        <v>1762</v>
+        <v>1762.00000000009</v>
       </c>
       <c r="N4" t="n">
-        <v>1762</v>
+        <v>1762.00000000009</v>
       </c>
       <c r="O4" t="n">
-        <v>1762</v>
+        <v>1762.00000000009</v>
       </c>
       <c r="P4" t="n">
-        <v>1762</v>
+        <v>1762.00000000009</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,28 +27144,28 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.223337312440642e-11</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.000000000083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.933564585167915e-11</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27641,7 +27641,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27653,7 +27653,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27693,13 +27693,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27878,7 +27878,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27933,19 +27933,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>151.8271516309748</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>319.1859637116847</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28170,16 +28170,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>126.870883593696</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P10" t="n">
         <v>368.8061924102448</v>
@@ -34825,34 +34825,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882067562</v>
       </c>
       <c r="Q2" t="n">
-        <v>988.3669714438406</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34989,13 +34989,13 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>168.7357375896766</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35062,25 +35062,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1392.11068005861</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1261.107535684054</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35229,19 +35229,19 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35314,19 +35314,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1184.755720492365</v>
+        <v>1762.000000000059</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>21.63135028021306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35466,16 +35466,16 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>19.22325579770342</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35536,34 +35536,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1228.661067507426</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1605.257306067565</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,34 +35773,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>561.4348275687028</v>
       </c>
       <c r="K14" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M14" t="n">
-        <v>752.457050363839</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1762.00000000003</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36010,25 +36010,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M17" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>872.5503003923664</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
-        <v>919.3483666068121</v>
+        <v>1379.1718162529</v>
       </c>
       <c r="P17" t="n">
         <v>844.3104324216301</v>
@@ -36037,7 +36037,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36247,25 +36247,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L20" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>946.8731461243742</v>
       </c>
       <c r="N20" t="n">
         <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
-        <v>1184.755720492365</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
         <v>844.3104324216301</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,13 +36484,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
@@ -36502,16 +36502,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1682.608306026747</v>
+        <v>1762.00000000003</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1009.776654008441</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,31 +36721,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L26" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>1536.880016835161</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>1429.678428886315</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,16 +36961,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>463.4516620966183</v>
+        <v>533.508528287631</v>
       </c>
       <c r="K29" t="n">
-        <v>1125.265832447857</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
         <v>926.8613366834172</v>
       </c>
       <c r="M29" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -36979,13 +36979,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>5.227297831401981e-10</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37201,10 +37201,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>956.2049222655996</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37216,13 +37216,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>1489.30682604808</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,22 +37432,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>776.6329994919354</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>1673.080039789267</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37456,10 +37456,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,22 +37669,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>492.795247678645</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L38" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>1292.098778386492</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37693,10 +37693,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37927,10 +37927,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1683.922187033249</v>
+        <v>1068.070113764034</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38143,16 +38143,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L44" t="n">
-        <v>1141.752258948503</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38161,16 +38161,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>919.3483666068121</v>
+        <v>1143.108047948852</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
